--- a/biology/Botanique/Cananga_odorata/Cananga_odorata.xlsx
+++ b/biology/Botanique/Cananga_odorata/Cananga_odorata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cananga odorata
 L’ylang-ylang  (Cananga odorata) est un arbre de la famille des Annonacées, originaire d'Asie du Sud-Est. On le cultive pour ses fleurs dont on extrait par distillation une huile essentielle très utilisée en parfumerie.
-Le terme de Cananga vient du nom indonésien et javanais de l'arbre, kenanga. Le nom vernaculaire Ylang-ylang vient du nom de l'arbre en tagalog (langue des Philippines)[1], et signifie « la fleur des fleurs ».
+Le terme de Cananga vient du nom indonésien et javanais de l'arbre, kenanga. Le nom vernaculaire Ylang-ylang vient du nom de l'arbre en tagalog (langue des Philippines), et signifie « la fleur des fleurs ».
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Ray s'intéresse à cet arbre dès 1650 et collecte les premières informations sur cet arbre qu'il nomme : Arbor Saguisen[2],[3].
-L’ylang-ylang est un arbre, au feuillage persistant, taillé à 2–3 m de haut en culture mais pouvant atteindre 25–30 m dans son milieu naturel d’origine. Il possède une couronne largement étalée. Sa croissance est très rapide les premières années puisqu’elle peut atteindre les 2 à 5 mètres par an[4].
-Les feuilles alternes, entières, coriaces, de 8-20 × 4–8 cm, d’un vert vif à la face supérieure, sont disposées très régulièrement le long des rameaux, en général dans le même plan. Les nervures sont très marquées[4].
-Les fleurs axillaires, solitaires ou en grappes, portées par un pédoncule de 2,5–5 cm, sont composées d’un calice à trois lobes de 6 mm réfléchis, de six longs pétales en lanières, pendants, disposés sur deux cercles et de nombreuses étamines disposées en spirale ainsi que de nombreux carpelles libres. Les pétales dégagent une odeur pénétrante, épicée rappelant les œillets, les narcisses et le jasmin. Les pétales d’abord blancs, prennent ensuite une teinte verdâtre puis virent au jaune tandis que leur base se colore en rouge. La floraison s’étale sur toute l’année mais elle est plus abondante durant la période chaude et humide[4].
-Les fruits, de 25 mm de long, sont formés par une juxtaposition de plusieurs méricarpes, pendants, ovoïdes, verdâtres puis noirâtres à maturité, dans lesquels les baies individuelles, soudées sur un axe floral forment une masse charnue. Ils renferment 6 à 12 graines aplaties, brun pâle[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Ray s'intéresse à cet arbre dès 1650 et collecte les premières informations sur cet arbre qu'il nomme : Arbor Saguisen,.
+L’ylang-ylang est un arbre, au feuillage persistant, taillé à 2–3 m de haut en culture mais pouvant atteindre 25–30 m dans son milieu naturel d’origine. Il possède une couronne largement étalée. Sa croissance est très rapide les premières années puisqu’elle peut atteindre les 2 à 5 mètres par an.
+Les feuilles alternes, entières, coriaces, de 8-20 × 4–8 cm, d’un vert vif à la face supérieure, sont disposées très régulièrement le long des rameaux, en général dans le même plan. Les nervures sont très marquées.
+Les fleurs axillaires, solitaires ou en grappes, portées par un pédoncule de 2,5–5 cm, sont composées d’un calice à trois lobes de 6 mm réfléchis, de six longs pétales en lanières, pendants, disposés sur deux cercles et de nombreuses étamines disposées en spirale ainsi que de nombreux carpelles libres. Les pétales dégagent une odeur pénétrante, épicée rappelant les œillets, les narcisses et le jasmin. Les pétales d’abord blancs, prennent ensuite une teinte verdâtre puis virent au jaune tandis que leur base se colore en rouge. La floraison s’étale sur toute l’année mais elle est plus abondante durant la période chaude et humide.
+Les fruits, de 25 mm de long, sont formés par une juxtaposition de plusieurs méricarpes, pendants, ovoïdes, verdâtres puis noirâtres à maturité, dans lesquels les baies individuelles, soudées sur un axe floral forment une masse charnue. Ils renferment 6 à 12 graines aplaties, brun pâle.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ylang-ylang est originaire des zones tropicales humides d’Inde, Indonésie, Malaisie, Philippines. Il croît dans les forêts humides à forte pluviosité, au bord des chemins, dans les jachères et dans les systèmes agroforestiers.
 Il a été introduit dans pratiquement toutes les îles tropicales du Pacifique (Polynésie, Mélanésie, États fédérés de Micronésie, Nouvelle-Calédonie, Hawaï…) au nord de l’Australie, en Thaïlande, au Vietnam, dans l’océan Indien (Madagascar, Comores, Mayotte, La Réunion, Maurice), dans les Caraïbes et au Costa Rica.
